--- a/src/main/resources/templates/PatternFinalReport.xlsx
+++ b/src/main/resources/templates/PatternFinalReport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stepankonasenko/Documents/javaWork/практика-обучение/SpringTestReportsBot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stepankonasenko/Documents/javaWork/практика-обучение/SpringTestReportsBot/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56784A7-DFD4-2245-8168-905ADC780CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8FD95E-CA64-2348-A057-E8FB32BF1E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28420" windowHeight="15980" xr2:uid="{082E3804-15BA-084E-9FB2-E5566443FF13}"/>
   </bookViews>
@@ -508,30 +508,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -563,6 +539,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -776,15 +776,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -905,15 +896,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1417,21 +1399,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1496,21 +1463,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1939,12 +1891,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2000,12 +1946,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2730,24 +2670,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2757,24 +2679,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2997,24 +2901,6 @@
               <c:f>Лист1!$A$30:$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="6">
                   <c:v>Всего:</c:v>
                 </c:pt>
@@ -3027,27 +2913,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3088,24 +2953,6 @@
               <c:f>Лист1!$A$30:$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="6">
                   <c:v>Всего:</c:v>
                 </c:pt>
@@ -3118,27 +2965,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3179,24 +3005,6 @@
               <c:f>Лист1!$A$30:$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="6">
                   <c:v>Всего:</c:v>
                 </c:pt>
@@ -6635,8 +6443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEA3E71-2659-D644-9294-867F3A6297D1}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="44" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6646,26 +6454,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41"/>
     </row>
     <row r="2" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34">
-        <v>0</v>
-      </c>
+      <c r="B2" s="26"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -6679,9 +6485,7 @@
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35">
-        <v>0</v>
-      </c>
+      <c r="B3" s="27"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
@@ -6695,130 +6499,86 @@
       <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="36">
-        <v>0</v>
-      </c>
+      <c r="B4" s="28"/>
       <c r="C4" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="37">
-        <v>0</v>
-      </c>
+      <c r="D4" s="29"/>
       <c r="E4" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="37">
-        <v>0</v>
-      </c>
+      <c r="F4" s="29"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
       <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="41"/>
     </row>
     <row r="6" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="34">
-        <v>0</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="40">
-        <v>0</v>
-      </c>
-      <c r="C7" s="41">
-        <v>0</v>
-      </c>
-      <c r="D7" s="41">
-        <v>0</v>
-      </c>
-      <c r="E7" s="41">
-        <v>0</v>
-      </c>
-      <c r="F7" s="41">
-        <v>0</v>
-      </c>
-      <c r="G7" s="41">
-        <v>0</v>
-      </c>
-      <c r="H7" s="41">
-        <v>0</v>
-      </c>
-      <c r="I7" s="41">
-        <v>0</v>
-      </c>
-      <c r="J7" s="42">
-        <v>0</v>
-      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="34"/>
     </row>
     <row r="8" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="41"/>
     </row>
     <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="43">
-        <f>A30</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="43">
-        <f>A31</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="43">
-        <f>A32</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="43">
-        <f>A33</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="43">
-        <f>A34</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="43">
-        <f>A35</f>
-        <v>0</v>
-      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
@@ -6827,24 +6587,12 @@
       <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="24">
-        <v>0</v>
-      </c>
-      <c r="C10" s="24">
-        <v>0</v>
-      </c>
-      <c r="D10" s="24">
-        <v>0</v>
-      </c>
-      <c r="E10" s="24">
-        <v>0</v>
-      </c>
-      <c r="F10" s="24">
-        <v>0</v>
-      </c>
-      <c r="G10" s="24">
-        <v>0</v>
-      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -6853,34 +6601,22 @@
       <c r="A11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="44">
-        <v>0</v>
-      </c>
-      <c r="C11" s="44">
-        <v>0</v>
-      </c>
-      <c r="D11" s="24">
-        <v>0</v>
-      </c>
-      <c r="E11" s="24">
-        <v>0</v>
-      </c>
-      <c r="F11" s="24">
-        <v>0</v>
-      </c>
-      <c r="G11" s="24">
-        <v>0</v>
-      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
@@ -6898,12 +6634,8 @@
       <c r="A14" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="24">
-        <v>0</v>
-      </c>
-      <c r="C14" s="24">
-        <v>0</v>
-      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
       <c r="D14">
         <f>B14-C14</f>
         <v>0</v>
@@ -6913,23 +6645,19 @@
       <c r="A15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="24">
-        <v>0</v>
-      </c>
-      <c r="C15" s="24">
-        <v>0</v>
-      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
       <c r="D15">
         <f>B15-C15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -6948,12 +6676,8 @@
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="24">
-        <v>0</v>
-      </c>
-      <c r="C18" s="24">
-        <v>0</v>
-      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
       <c r="D18">
         <f>B18-C18</f>
         <v>0</v>
@@ -6963,12 +6687,8 @@
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="24">
-        <v>0</v>
-      </c>
-      <c r="C19" s="24">
-        <v>0</v>
-      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
       <c r="D19">
         <f t="shared" ref="D19" si="0">B19-C19</f>
         <v>0</v>
@@ -6978,23 +6698,19 @@
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="44">
-        <v>0</v>
-      </c>
-      <c r="C20" s="44">
-        <v>0</v>
-      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
       <c r="D20">
         <f>B20-C20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -7013,12 +6729,8 @@
       <c r="A23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="24">
-        <v>0</v>
-      </c>
-      <c r="C23" s="24">
-        <v>0</v>
-      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
       <c r="D23">
         <f>B23-C23</f>
         <v>0</v>
@@ -7028,12 +6740,8 @@
       <c r="A24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="24">
-        <v>0</v>
-      </c>
-      <c r="C24" s="24">
-        <v>0</v>
-      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
       <c r="D24">
         <f t="shared" ref="D24:D27" si="1">B24-C24</f>
         <v>0</v>
@@ -7043,12 +6751,8 @@
       <c r="A25" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="24">
-        <v>0</v>
-      </c>
-      <c r="C25" s="24">
-        <v>0</v>
-      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
       <c r="D25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7058,12 +6762,8 @@
       <c r="A26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="24">
-        <v>0</v>
-      </c>
-      <c r="C26" s="24">
-        <v>0</v>
-      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
       <c r="D26">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7073,23 +6773,19 @@
       <c r="A27" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="24">
-        <v>0</v>
-      </c>
-      <c r="C27" s="24">
-        <v>0</v>
-      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
       <c r="D27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="41"/>
     </row>
     <row r="29" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -7106,90 +6802,54 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="24">
-        <v>0</v>
-      </c>
-      <c r="B30" s="24">
-        <v>0</v>
-      </c>
-      <c r="C30" s="24">
-        <v>0</v>
-      </c>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
       <c r="D30">
         <f>B30-C30</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="43">
-        <v>0</v>
-      </c>
-      <c r="B31" s="24">
-        <v>0</v>
-      </c>
-      <c r="C31" s="24">
-        <v>0</v>
-      </c>
+      <c r="A31" s="35"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
       <c r="D31">
         <f t="shared" ref="D31:D36" si="2">B31-C31</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="43">
-        <v>0</v>
-      </c>
-      <c r="B32" s="24">
-        <v>0</v>
-      </c>
-      <c r="C32" s="24">
-        <v>0</v>
-      </c>
+      <c r="A32" s="35"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
       <c r="D32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="24">
-        <v>0</v>
-      </c>
-      <c r="B33" s="24">
-        <v>0</v>
-      </c>
-      <c r="C33" s="24">
-        <v>0</v>
-      </c>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
       <c r="D33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="24">
-        <v>0</v>
-      </c>
-      <c r="B34" s="24">
-        <v>0</v>
-      </c>
-      <c r="C34" s="24">
-        <v>0</v>
-      </c>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
       <c r="D34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="24">
-        <v>0</v>
-      </c>
-      <c r="B35" s="24">
-        <v>0</v>
-      </c>
-      <c r="C35" s="24">
-        <v>0</v>
-      </c>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
       <c r="D35">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7199,87 +6859,81 @@
       <c r="A36" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="24">
-        <f>SUM(B30:B35)</f>
-        <v>0</v>
-      </c>
-      <c r="C36" s="24">
-        <f>SUM(C30:C35)</f>
-        <v>0</v>
-      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
       <c r="D36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="30"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="41"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="26">
+      <c r="A38" s="37">
         <v>0</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="9">
